--- a/TradeRepublic.xlsx
+++ b/TradeRepublic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.lazzaro\OneDrive - CUSTOM SPA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://customgroupspa-my.sharepoint.com/personal/s_lazzaro_custom_it/Documents/Desktop/Finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E201179-1149-4BE3-B8EE-79B1E5AD4EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8EAF9D53-F6AD-4643-B586-EA7CB65B1DBF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EAF9D53-F6AD-4643-B586-EA7CB65B1DBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -160,8 +160,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -207,17 +207,17 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -225,27 +225,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="1"/>
@@ -263,16 +243,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -588,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE21989-1AC3-4BD8-AA16-32010058C196}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
@@ -611,19 +581,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2128,10 +2098,10 @@
     <mergeCell ref="G1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="O1 O3:O1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TradeRepublic.xlsx
+++ b/TradeRepublic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://customgroupspa-my.sharepoint.com/personal/s_lazzaro_custom_it/Documents/Desktop/Finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E201179-1149-4BE3-B8EE-79B1E5AD4EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{7E201179-1149-4BE3-B8EE-79B1E5AD4EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64029FF2-92F9-43B8-A545-E9D7539A8533}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EAF9D53-F6AD-4643-B586-EA7CB65B1DBF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>Depositi e Prelievi</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Totale plus/minus</t>
+  </si>
+  <si>
+    <t>Berkshire Hathaway (B)</t>
   </si>
 </sst>
 </file>
@@ -160,8 +163,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -208,8 +211,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -221,6 +222,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -558,57 +561,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE21989-1AC3-4BD8-AA16-32010058C196}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -617,25 +620,25 @@
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -643,17 +646,17 @@
       <c r="A3" s="3">
         <v>45300</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>200</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <f>SUM(B:B)-D3</f>
-        <v>3791.39</v>
-      </c>
-      <c r="D3" s="10">
+        <v>4141.3900000000003</v>
+      </c>
+      <c r="D3" s="8">
         <v>54.61</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <f>SUM(O:O)</f>
         <v>52.960366219999969</v>
       </c>
@@ -663,23 +666,23 @@
       <c r="H3" s="3">
         <v>45300</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="10">
+      <c r="I3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="8">
         <v>143.88</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="10">
         <v>0.208507</v>
       </c>
-      <c r="L3" s="10">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
         <f>IF(I3 = "A", J3*K3+L3,"")</f>
         <v>30.99998716</v>
       </c>
-      <c r="N3" s="10" t="str">
+      <c r="N3" s="8" t="str">
         <f>IF(I3 = "V", J3*K3-L3,"")</f>
         <v/>
       </c>
@@ -688,33 +691,33 @@
       <c r="A4" s="3">
         <v>45300</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>110</v>
       </c>
       <c r="H4" s="3">
         <v>45324</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="8">
         <v>148.94</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="10">
         <v>0.208507</v>
       </c>
-      <c r="L4" s="10">
-        <v>1</v>
-      </c>
-      <c r="M4" s="10" t="str">
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8" t="str">
         <f t="shared" ref="M4:M67" si="0">IF(I4 = "A", J4*K4+L4,"")</f>
         <v/>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="8">
         <f t="shared" ref="N4:N67" si="1">IF(I4 = "V", J4*K4-L4,"")</f>
         <v>30.055032579999999</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="8">
         <f>SUM(N3:N6) - SUM(M3:M6)</f>
         <v>8.9150454200000127</v>
       </c>
@@ -723,29 +726,29 @@
       <c r="A5" s="3">
         <v>45301</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>-20</v>
       </c>
       <c r="H5" s="3">
         <v>45341</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="8">
         <v>146.16</v>
       </c>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10">
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
         <f t="shared" si="0"/>
         <v>147.16</v>
       </c>
-      <c r="N5" s="10" t="str">
+      <c r="N5" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -754,29 +757,29 @@
       <c r="A6" s="3">
         <v>45316</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>100</v>
       </c>
       <c r="H6" s="3">
         <v>45363</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="8">
         <v>158.02000000000001</v>
       </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="10">
-        <v>1</v>
-      </c>
-      <c r="M6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N6" s="10">
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N6" s="8">
         <f t="shared" si="1"/>
         <v>157.02000000000001</v>
       </c>
@@ -785,7 +788,7 @@
       <c r="A7" s="3">
         <v>45316</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>20</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -794,23 +797,23 @@
       <c r="H7" s="3">
         <v>45300</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="8">
         <v>315.2</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="10">
         <v>9.5146999999999995E-2</v>
       </c>
-      <c r="L7" s="10">
-        <v>1</v>
-      </c>
-      <c r="M7" s="10">
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8">
         <f t="shared" si="0"/>
         <v>30.990334399999998</v>
       </c>
-      <c r="N7" s="10" t="str">
+      <c r="N7" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -819,33 +822,33 @@
       <c r="A8" s="3">
         <v>45321</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>50</v>
       </c>
       <c r="H8" s="3">
         <v>45324</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="8">
         <v>352.6</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="10">
         <v>9.5146999999999995E-2</v>
       </c>
-      <c r="L8" s="10">
-        <v>1</v>
-      </c>
-      <c r="M8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N8" s="10">
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N8" s="8">
         <f t="shared" si="1"/>
         <v>32.5488322</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="8">
         <f>SUM(N7:N8)-SUM(M7:M8)</f>
         <v>1.5584978000000014</v>
       </c>
@@ -854,7 +857,7 @@
       <c r="A9" s="3">
         <v>45324</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -863,23 +866,23 @@
       <c r="H9" s="3">
         <v>45300</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="I9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="8">
         <v>218.4</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="10">
         <v>0.13733100000000001</v>
       </c>
-      <c r="L9" s="10">
-        <v>1</v>
-      </c>
-      <c r="M9" s="10">
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8">
         <f t="shared" si="0"/>
         <v>30.993090400000003</v>
       </c>
-      <c r="N9" s="10" t="str">
+      <c r="N9" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -888,14 +891,14 @@
       <c r="A10" s="3">
         <v>45334</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>100</v>
       </c>
-      <c r="M10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="10" t="str">
+      <c r="M10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -904,7 +907,7 @@
       <c r="A11" s="3">
         <v>45334</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>100</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -913,23 +916,23 @@
       <c r="H11" s="3">
         <v>45303</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="I11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="8">
         <v>17.190000000000001</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="10">
         <v>4</v>
       </c>
-      <c r="L11" s="10">
-        <v>1</v>
-      </c>
-      <c r="M11" s="10">
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8">
         <f t="shared" si="0"/>
         <v>69.760000000000005</v>
       </c>
-      <c r="N11" s="10" t="str">
+      <c r="N11" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -938,33 +941,33 @@
       <c r="A12" s="3">
         <v>45337</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>45337</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="8">
         <v>18.309999999999999</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="10">
         <v>4</v>
       </c>
-      <c r="L12" s="10">
-        <v>1</v>
-      </c>
-      <c r="M12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N12" s="10">
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N12" s="8">
         <f t="shared" si="1"/>
         <v>72.239999999999995</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="8">
         <f>SUM(N11:N12)-SUM(M11:M12)</f>
         <v>2.4799999999999898</v>
       </c>
@@ -973,7 +976,7 @@
       <c r="A13" s="3">
         <v>45337</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>200</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -982,23 +985,23 @@
       <c r="H13" s="3">
         <v>45307</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="I13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="8">
         <v>25.64</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="10">
         <v>3</v>
       </c>
-      <c r="L13" s="10">
-        <v>1</v>
-      </c>
-      <c r="M13" s="10">
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="M13" s="8">
         <f t="shared" si="0"/>
         <v>77.92</v>
       </c>
-      <c r="N13" s="10" t="str">
+      <c r="N13" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1007,29 +1010,29 @@
       <c r="A14" s="3">
         <v>45345</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>250</v>
       </c>
       <c r="H14" s="3">
         <v>45334</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="10">
+      <c r="I14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="8">
         <v>29.25</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="10">
         <v>4</v>
       </c>
-      <c r="L14" s="10">
-        <v>1</v>
-      </c>
-      <c r="M14" s="10">
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="N14" s="10" t="str">
+      <c r="N14" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1038,14 +1041,14 @@
       <c r="A15" s="3">
         <v>45349</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>600</v>
       </c>
-      <c r="M15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N15" s="10" t="str">
+      <c r="M15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N15" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1054,14 +1057,14 @@
       <c r="A16" s="3">
         <v>45351</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>176</v>
       </c>
-      <c r="M16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N16" s="10" t="str">
+      <c r="M16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N16" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1070,7 +1073,7 @@
       <c r="A17" s="3">
         <v>45356</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>300</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -1079,23 +1082,23 @@
       <c r="H17" s="3">
         <v>45316</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="I17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="8">
         <v>244.75</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="10">
         <v>0.40858</v>
       </c>
-      <c r="L17" s="10">
-        <v>1</v>
-      </c>
-      <c r="M17" s="10">
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8">
         <f t="shared" si="0"/>
         <v>100.999955</v>
       </c>
-      <c r="N17" s="10" t="str">
+      <c r="N17" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1104,33 +1107,33 @@
       <c r="A18" s="3">
         <v>45357</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>200</v>
       </c>
       <c r="H18" s="3">
         <v>45363</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="8">
         <v>259.39999999999998</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="10">
         <v>0.40858</v>
       </c>
-      <c r="L18" s="10">
-        <v>1</v>
-      </c>
-      <c r="M18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N18" s="10">
+      <c r="L18" s="8">
+        <v>1</v>
+      </c>
+      <c r="M18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N18" s="8">
         <f t="shared" si="1"/>
         <v>104.98565199999999</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="8">
         <f>N18-M17</f>
         <v>3.9856969999999876</v>
       </c>
@@ -1139,7 +1142,7 @@
       <c r="A19" s="3">
         <v>45362</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>220</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -1148,23 +1151,23 @@
       <c r="H19" s="3">
         <v>45324</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="10">
+      <c r="I19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="8">
         <v>215</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="10">
         <v>0.46511599999999997</v>
       </c>
-      <c r="L19" s="10">
-        <v>1</v>
-      </c>
-      <c r="M19" s="10">
+      <c r="L19" s="8">
+        <v>1</v>
+      </c>
+      <c r="M19" s="8">
         <f t="shared" si="0"/>
         <v>100.99994</v>
       </c>
-      <c r="N19" s="10" t="str">
+      <c r="N19" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1173,29 +1176,29 @@
       <c r="A20" s="3">
         <v>45363</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>290</v>
       </c>
       <c r="H20" s="3">
         <v>45352</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="10">
+      <c r="I20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="8">
         <v>192</v>
       </c>
-      <c r="K20" s="5">
-        <v>1</v>
-      </c>
-      <c r="L20" s="10">
-        <v>1</v>
-      </c>
-      <c r="M20" s="10">
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="8">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="N20" s="10" t="str">
+      <c r="N20" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1204,14 +1207,14 @@
       <c r="A21" s="3">
         <v>45363</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>300</v>
       </c>
-      <c r="M21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N21" s="10" t="str">
+      <c r="M21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N21" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1220,7 +1223,7 @@
       <c r="A22" s="3">
         <v>45365</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <v>200</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -1229,23 +1232,23 @@
       <c r="H22" s="3">
         <v>45328</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="10">
+      <c r="I22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="8">
         <v>15.31</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="10">
         <v>7</v>
       </c>
-      <c r="L22" s="10">
-        <v>1</v>
-      </c>
-      <c r="M22" s="10">
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8">
         <f t="shared" si="0"/>
         <v>108.17</v>
       </c>
-      <c r="N22" s="10" t="str">
+      <c r="N22" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1254,52 +1257,58 @@
       <c r="A23" s="3">
         <v>45369</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <v>200</v>
       </c>
       <c r="H23" s="3">
         <v>45358</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="8">
         <v>16.55</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="10">
         <v>7</v>
       </c>
-      <c r="L23" s="10">
-        <v>1</v>
-      </c>
-      <c r="M23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N23" s="10">
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+      <c r="M23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N23" s="8">
         <f t="shared" si="1"/>
         <v>114.85000000000001</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="8">
         <f>N23-M22</f>
         <v>6.6800000000000068</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>45378</v>
+      </c>
+      <c r="B24" s="8">
+        <v>350</v>
+      </c>
       <c r="G24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="3">
         <v>45301</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="10">
+      <c r="I24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N24" s="10" t="str">
+      <c r="N24" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1308,27 +1317,27 @@
       <c r="H25" s="3">
         <v>45330</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="8">
         <v>99.26</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="10">
         <v>0.1201</v>
       </c>
-      <c r="L25" s="10">
-        <v>1</v>
-      </c>
-      <c r="M25" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N25" s="10">
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
+      <c r="M25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N25" s="8">
         <f t="shared" si="1"/>
         <v>10.921126000000001</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="8">
         <f>N25</f>
         <v>10.921126000000001</v>
       </c>
@@ -1340,23 +1349,23 @@
       <c r="H26" s="3">
         <v>45336</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="10">
+      <c r="I26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="8">
         <v>8.98</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="10">
         <v>12</v>
       </c>
-      <c r="L26" s="10">
-        <v>1</v>
-      </c>
-      <c r="M26" s="10">
+      <c r="L26" s="8">
+        <v>1</v>
+      </c>
+      <c r="M26" s="8">
         <f t="shared" si="0"/>
         <v>108.76</v>
       </c>
-      <c r="N26" s="10" t="str">
+      <c r="N26" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1365,27 +1374,27 @@
       <c r="H27" s="3">
         <v>45369</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="8">
         <v>9.2899999999999991</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="10">
         <v>12</v>
       </c>
-      <c r="L27" s="10">
-        <v>1</v>
-      </c>
-      <c r="M27" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N27" s="10">
+      <c r="L27" s="8">
+        <v>1</v>
+      </c>
+      <c r="M27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N27" s="8">
         <f t="shared" si="1"/>
         <v>110.47999999999999</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="8">
         <f>N27-M26</f>
         <v>1.7199999999999847</v>
       </c>
@@ -1397,33 +1406,33 @@
       <c r="H28" s="3">
         <v>45337</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="10">
+      <c r="I28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="8">
         <v>5.0380000000000003</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="10">
         <v>40</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="8">
         <v>1.2</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="8">
         <f t="shared" si="0"/>
         <v>202.72</v>
       </c>
-      <c r="N28" s="10" t="str">
+      <c r="N28" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M29" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N29" s="10" t="str">
+      <c r="M29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N29" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1435,33 +1444,33 @@
       <c r="H30" s="3">
         <v>45338</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="10">
+      <c r="I30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="8">
         <v>10.199999999999999</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="10">
         <v>10</v>
       </c>
-      <c r="L30" s="10">
-        <v>1</v>
-      </c>
-      <c r="M30" s="10">
+      <c r="L30" s="8">
+        <v>1</v>
+      </c>
+      <c r="M30" s="8">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="N30" s="10" t="str">
+      <c r="N30" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M31" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N31" s="10" t="str">
+      <c r="M31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N31" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1473,23 +1482,23 @@
       <c r="H32" s="3">
         <v>45348</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="10">
+      <c r="I32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="8">
         <v>261.8</v>
       </c>
-      <c r="K32" s="5">
-        <v>1</v>
-      </c>
-      <c r="L32" s="10">
-        <v>1</v>
-      </c>
-      <c r="M32" s="10">
+      <c r="K32" s="10">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8">
+        <v>1</v>
+      </c>
+      <c r="M32" s="8">
         <f t="shared" si="0"/>
         <v>262.8</v>
       </c>
-      <c r="N32" s="10" t="str">
+      <c r="N32" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1498,27 +1507,27 @@
       <c r="H33" s="3">
         <v>45350</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="8">
         <v>280.5</v>
       </c>
-      <c r="K33" s="5">
-        <v>1</v>
-      </c>
-      <c r="L33" s="10">
-        <v>1</v>
-      </c>
-      <c r="M33" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N33" s="10">
+      <c r="K33" s="10">
+        <v>1</v>
+      </c>
+      <c r="L33" s="8">
+        <v>1</v>
+      </c>
+      <c r="M33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N33" s="8">
         <f t="shared" si="1"/>
         <v>279.5</v>
       </c>
-      <c r="O33" s="10">
+      <c r="O33" s="8">
         <f>N33-M32</f>
         <v>16.699999999999989</v>
       </c>
@@ -1527,23 +1536,23 @@
       <c r="H34" s="3">
         <v>45350</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="10">
+      <c r="I34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="8">
         <v>284.95</v>
       </c>
-      <c r="K34" s="5">
-        <v>1</v>
-      </c>
-      <c r="L34" s="10">
-        <v>1</v>
-      </c>
-      <c r="M34" s="10">
+      <c r="K34" s="10">
+        <v>1</v>
+      </c>
+      <c r="L34" s="8">
+        <v>1</v>
+      </c>
+      <c r="M34" s="8">
         <f t="shared" si="0"/>
         <v>285.95</v>
       </c>
-      <c r="N34" s="10" t="str">
+      <c r="N34" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1552,23 +1561,23 @@
       <c r="H35" s="3">
         <v>45357</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="10">
+      <c r="I35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="8">
         <v>259.35000000000002</v>
       </c>
-      <c r="K35" s="5">
-        <v>1</v>
-      </c>
-      <c r="L35" s="10">
-        <v>1</v>
-      </c>
-      <c r="M35" s="10">
+      <c r="K35" s="10">
+        <v>1</v>
+      </c>
+      <c r="L35" s="8">
+        <v>1</v>
+      </c>
+      <c r="M35" s="8">
         <f t="shared" si="0"/>
         <v>260.35000000000002</v>
       </c>
-      <c r="N35" s="10" t="str">
+      <c r="N35" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1580,33 +1589,33 @@
       <c r="H36" s="3">
         <v>45350</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="10">
+      <c r="I36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="8">
         <v>140.78</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="10">
         <v>2</v>
       </c>
-      <c r="L36" s="10">
-        <v>1</v>
-      </c>
-      <c r="M36" s="10">
+      <c r="L36" s="8">
+        <v>1</v>
+      </c>
+      <c r="M36" s="8">
         <f t="shared" si="0"/>
         <v>282.56</v>
       </c>
-      <c r="N36" s="10" t="str">
+      <c r="N36" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="M37" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N37" s="10" t="str">
+      <c r="M37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N37" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1618,23 +1627,23 @@
       <c r="H38" s="3">
         <v>45350</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="10">
+      <c r="I38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="8">
         <v>9</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="10">
         <v>23</v>
       </c>
-      <c r="L38" s="10">
-        <v>1</v>
-      </c>
-      <c r="M38" s="10">
+      <c r="L38" s="8">
+        <v>1</v>
+      </c>
+      <c r="M38" s="8">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="N38" s="10" t="str">
+      <c r="N38" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1643,33 +1652,33 @@
       <c r="H39" s="3">
         <v>45359</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="10">
+      <c r="I39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="8">
         <v>8.0399999999999991</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="10">
         <v>18</v>
       </c>
-      <c r="L39" s="10">
-        <v>1</v>
-      </c>
-      <c r="M39" s="10">
+      <c r="L39" s="8">
+        <v>1</v>
+      </c>
+      <c r="M39" s="8">
         <f t="shared" si="0"/>
         <v>145.71999999999997</v>
       </c>
-      <c r="N39" s="10" t="str">
+      <c r="N39" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="M40" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N40" s="10" t="str">
+      <c r="M40" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N40" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1681,33 +1690,33 @@
       <c r="H41" s="3">
         <v>45356</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="10">
+      <c r="I41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="8">
         <v>74.87</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="10">
         <v>4</v>
       </c>
-      <c r="L41" s="10">
-        <v>1</v>
-      </c>
-      <c r="M41" s="10">
+      <c r="L41" s="8">
+        <v>1</v>
+      </c>
+      <c r="M41" s="8">
         <f t="shared" si="0"/>
         <v>300.48</v>
       </c>
-      <c r="N41" s="10" t="str">
+      <c r="N41" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="M42" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N42" s="10" t="str">
+      <c r="M42" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N42" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1719,33 +1728,33 @@
       <c r="H43" s="3">
         <v>45362</v>
       </c>
-      <c r="I43" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="10">
+      <c r="I43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="8">
         <v>3.048</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="10">
         <v>70</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="8">
         <v>1.21</v>
       </c>
-      <c r="M43" s="10">
+      <c r="M43" s="8">
         <f t="shared" si="0"/>
         <v>214.57000000000002</v>
       </c>
-      <c r="N43" s="10" t="str">
+      <c r="N43" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="M44" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N44" s="10" t="str">
+      <c r="M44" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N44" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1757,33 +1766,33 @@
       <c r="H45" s="3">
         <v>45363</v>
       </c>
-      <c r="I45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="10">
+      <c r="I45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="8">
         <v>4.7081999999999997</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="10">
         <v>63</v>
       </c>
-      <c r="L45" s="10">
-        <v>1</v>
-      </c>
-      <c r="M45" s="10">
+      <c r="L45" s="8">
+        <v>1</v>
+      </c>
+      <c r="M45" s="8">
         <f t="shared" si="0"/>
         <v>297.61660000000001</v>
       </c>
-      <c r="N45" s="10" t="str">
+      <c r="N45" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="M46" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N46" s="10" t="str">
+      <c r="M46" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N46" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1795,33 +1804,33 @@
       <c r="H47" s="3">
         <v>45364</v>
       </c>
-      <c r="I47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="10">
+      <c r="I47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="8">
         <v>43.884999999999998</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="10">
         <v>7</v>
       </c>
-      <c r="L47" s="10">
-        <v>1</v>
-      </c>
-      <c r="M47" s="10">
+      <c r="L47" s="8">
+        <v>1</v>
+      </c>
+      <c r="M47" s="8">
         <f t="shared" si="0"/>
         <v>308.19499999999999</v>
       </c>
-      <c r="N47" s="10" t="str">
+      <c r="N47" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="M48" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N48" s="10" t="str">
+      <c r="M48" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N48" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1833,33 +1842,33 @@
       <c r="H49" s="3">
         <v>45365</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="10">
+      <c r="I49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="8">
         <v>128.6</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="10">
         <v>3</v>
       </c>
-      <c r="L49" s="10">
-        <v>1</v>
-      </c>
-      <c r="M49" s="10">
+      <c r="L49" s="8">
+        <v>1</v>
+      </c>
+      <c r="M49" s="8">
         <f t="shared" si="0"/>
         <v>386.79999999999995</v>
       </c>
-      <c r="N49" s="10" t="str">
+      <c r="N49" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="M50" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N50" s="10" t="str">
+      <c r="M50" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N50" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1871,223 +1880,241 @@
       <c r="H51" s="3">
         <v>45369</v>
       </c>
-      <c r="I51" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" s="10">
+      <c r="I51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="8">
         <v>4.0839999999999996</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="10">
         <v>80</v>
       </c>
-      <c r="L51" s="10">
+      <c r="L51" s="8">
         <v>1.33</v>
       </c>
-      <c r="M51" s="10">
+      <c r="M51" s="8">
         <f t="shared" si="0"/>
         <v>328.04999999999995</v>
       </c>
-      <c r="N51" s="10" t="str">
+      <c r="N51" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="M52" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N52" s="10" t="str">
+      <c r="M52" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N52" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="M53" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N53" s="10" t="str">
+      <c r="G53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="3">
+        <v>45378</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="8">
+        <v>381.4</v>
+      </c>
+      <c r="K53" s="10">
+        <v>1</v>
+      </c>
+      <c r="L53" s="8">
+        <v>1</v>
+      </c>
+      <c r="M53" s="8">
+        <f t="shared" si="0"/>
+        <v>382.4</v>
+      </c>
+      <c r="N53" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="M54" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N54" s="10" t="str">
+      <c r="M54" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N54" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="M55" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N55" s="10" t="str">
+      <c r="M55" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N55" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="M56" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N56" s="10" t="str">
+      <c r="M56" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N56" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="M57" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N57" s="10" t="str">
+      <c r="M57" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N57" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="M58" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N58" s="10" t="str">
+      <c r="M58" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N58" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="M59" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N59" s="10" t="str">
+      <c r="M59" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N59" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="M60" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N60" s="10" t="str">
+      <c r="M60" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N60" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="M61" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N61" s="10" t="str">
+      <c r="M61" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N61" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="M62" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N62" s="10" t="str">
+      <c r="M62" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N62" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="M63" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N63" s="10" t="str">
+      <c r="M63" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N63" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="M64" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N64" s="10" t="str">
+      <c r="M64" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N64" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M65" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N65" s="10" t="str">
+      <c r="M65" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N65" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M66" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N66" s="10" t="str">
+      <c r="M66" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N66" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M67" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N67" s="10" t="str">
+      <c r="M67" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N67" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M68" s="10" t="str">
+      <c r="M68" s="8" t="str">
         <f t="shared" ref="M68:M71" si="2">IF(I68 = "A", J68*K68+L68,"")</f>
         <v/>
       </c>
-      <c r="N68" s="10" t="str">
+      <c r="N68" s="8" t="str">
         <f t="shared" ref="N68:N71" si="3">IF(I68 = "V", J68*K68-L68,"")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M69" s="10" t="str">
+      <c r="M69" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N69" s="10" t="str">
+      <c r="N69" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M70" s="10" t="str">
+      <c r="M70" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N70" s="10" t="str">
+      <c r="N70" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M71" s="10" t="str">
+      <c r="M71" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N71" s="10" t="str">
+      <c r="N71" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
